--- a/cam7_validation.xlsx
+++ b/cam7_validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1E37C6-284B-492C-93EB-9F37BA9F1553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EA7125-9C5E-418D-AE8B-17DC84327E45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24686" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9257" yWindow="5074" windowWidth="24686" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -350,20 +350,20 @@
   <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+      <selection sqref="A1:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>869.5</v>
+        <v>868.995</v>
       </c>
       <c r="B1" s="1">
-        <v>1037</v>
+        <v>1030.8320000000001</v>
       </c>
       <c r="C1" s="1">
-        <v>2551.3000000000002</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -372,657 +372,1337 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>869.5</v>
+        <v>880.36300000000006</v>
       </c>
       <c r="B2" s="1">
-        <v>1037</v>
+        <v>1808.694</v>
       </c>
       <c r="C2" s="1">
-        <v>2551.3000000000002</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>869.5</v>
+        <v>876.87900000000002</v>
       </c>
       <c r="B3" s="1">
-        <v>1037</v>
+        <v>1709.001</v>
       </c>
       <c r="C3" s="1">
-        <v>2551.3000000000002</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>-14.05</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>869.5</v>
+        <v>873.52800000000002</v>
       </c>
       <c r="B4" s="1">
-        <v>1037</v>
+        <v>1606.4770000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>2551.3000000000002</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>-12.03</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>869.5</v>
+        <v>871.13199999999995</v>
       </c>
       <c r="B5" s="1">
-        <v>1037</v>
+        <v>1507.146</v>
       </c>
       <c r="C5" s="1">
-        <v>2551.3000000000002</v>
+        <v>2547.1999999999998</v>
       </c>
       <c r="D5" s="1">
+        <v>-10</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>869.53200000000004</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1410.058</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2547.1999999999998</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-8</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>868.51599999999996</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1313.6079999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2547.1999999999998</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-5.97</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>868.23500000000001</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1218.7539999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2547.1999999999998</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-4</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>868.10799999999995</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1123.5360000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2547.1999999999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1.97</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>868.98800000000006</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1029.7149999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2547.1999999999998</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>870</v>
+      </c>
+      <c r="B11" s="1">
+        <v>936.08</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2547.1999999999998</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>871.86800000000005</v>
+      </c>
+      <c r="B12" s="1">
+        <v>841.71600000000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2547.1999999999998</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.03</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>874.04</v>
+      </c>
+      <c r="B13" s="1">
+        <v>747.47299999999996</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2547.1999999999998</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6.03</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>877.04499999999996</v>
+      </c>
+      <c r="B14" s="1">
+        <v>652.54700000000003</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2547.1999999999998</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>880.697</v>
+      </c>
+      <c r="B15" s="1">
+        <v>556.68899999999996</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2547.1999999999998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>884.68899999999996</v>
+      </c>
+      <c r="B16" s="1">
+        <v>460.17700000000002</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2547.1999999999998</v>
+      </c>
+      <c r="D16" s="1">
+        <v>12.03</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>889.49099999999999</v>
+      </c>
+      <c r="B17" s="1">
+        <v>361.89</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2547.1999999999998</v>
+      </c>
+      <c r="D17" s="1">
+        <v>14.03</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>894.59100000000001</v>
+      </c>
+      <c r="B18" s="1">
+        <v>261.839</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2547.1999999999998</v>
+      </c>
+      <c r="D18" s="1">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>850.68100000000004</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1030.8530000000001</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2646.9</v>
+      </c>
+      <c r="D19" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="A20" s="1">
+        <v>861.39</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1808.489</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2646.9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-15.97</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="1">
+        <v>857.98800000000006</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1709.8620000000001</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2646.9</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-14.05</v>
+      </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="A22" s="1">
+        <v>854.97400000000005</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1607.46</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2646.9</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-12.03</v>
+      </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="A23" s="1">
+        <v>852.85</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1507.8689999999999</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2646.9</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-10</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="1">
+        <v>851.14</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1410.184</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2646.9</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-8</v>
+      </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="1">
+        <v>850.42200000000003</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1315.0630000000001</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2646.9</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-5.97</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="1">
+        <v>849.71</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1219.489</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2646.9</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-4</v>
+      </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="1">
+        <v>849.99400000000003</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1124.4760000000001</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2646.9</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-1.95</v>
+      </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="1">
+        <v>850.69</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1031.8209999999999</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2646.9</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="1">
+        <v>851.89700000000005</v>
+      </c>
+      <c r="B29" s="1">
+        <v>936.59</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2646.9</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.0299999999999998</v>
+      </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="A30" s="1">
+        <v>853.53399999999999</v>
+      </c>
+      <c r="B30" s="1">
+        <v>843.17200000000003</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2646.9</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4.03</v>
+      </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="A31" s="1">
+        <v>855.96400000000006</v>
+      </c>
+      <c r="B31" s="1">
+        <v>749.048</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2646.9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>6.03</v>
+      </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="A32" s="1">
+        <v>858.87400000000002</v>
+      </c>
+      <c r="B32" s="1">
+        <v>654.01</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2646.9</v>
+      </c>
+      <c r="D32" s="1">
+        <v>8.0299999999999994</v>
+      </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="A33" s="1">
+        <v>862.25400000000002</v>
+      </c>
+      <c r="B33" s="1">
+        <v>558.726</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2646.9</v>
+      </c>
+      <c r="D33" s="1">
+        <v>10.029999999999999</v>
+      </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="A34" s="1">
+        <v>866.33299999999997</v>
+      </c>
+      <c r="B34" s="1">
+        <v>461.404</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2646.9</v>
+      </c>
+      <c r="D34" s="1">
+        <v>12.03</v>
+      </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="1">
+        <v>870.51</v>
+      </c>
+      <c r="B35" s="1">
+        <v>363.94299999999998</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2646.9</v>
+      </c>
+      <c r="D35" s="1">
+        <v>14.03</v>
+      </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="A36" s="1">
+        <v>875.55700000000002</v>
+      </c>
+      <c r="B36" s="1">
+        <v>263.55399999999997</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2646.9</v>
+      </c>
+      <c r="D36" s="1">
+        <v>16.03</v>
+      </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="A37" s="1">
+        <v>833.89700000000005</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1030.8019999999999</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2746.6</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="A38" s="1">
+        <v>843.70600000000002</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1807.2539999999999</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2746.6</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-15.98</v>
+      </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="A39" s="1">
+        <v>840.65599999999995</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1708.319</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2746.6</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-14.05</v>
+      </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="A40" s="1">
+        <v>837.70600000000002</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1606.54</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2746.6</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-12.03</v>
+      </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="A41" s="1">
+        <v>835.7</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1507.2729999999999</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2746.6</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-10</v>
+      </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="A42" s="1">
+        <v>834.4</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1410.2909999999999</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2746.6</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-8</v>
+      </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="A43" s="1">
+        <v>833.42700000000002</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1314</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2746.6</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-5.98</v>
+      </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="A44" s="1">
+        <v>832.93899999999996</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1219.8699999999999</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2746.6</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-3.98</v>
+      </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="A45" s="1">
+        <v>833.00099999999998</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1125.646</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2746.6</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-1.98</v>
+      </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="A46" s="1">
+        <v>833.89400000000001</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1031.6880000000001</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2746.6</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="A47" s="1">
+        <v>834.98099999999999</v>
+      </c>
+      <c r="B47" s="1">
+        <v>937.23400000000004</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2746.6</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2.02</v>
+      </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="A48" s="1">
+        <v>836.86300000000006</v>
+      </c>
+      <c r="B48" s="1">
+        <v>842.96100000000001</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2746.6</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4.0199999999999996</v>
+      </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="A49" s="1">
+        <v>838.97699999999998</v>
+      </c>
+      <c r="B49" s="1">
+        <v>748.428</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2746.6</v>
+      </c>
+      <c r="D49" s="1">
+        <v>6.02</v>
+      </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="A50" s="1">
+        <v>841.851</v>
+      </c>
+      <c r="B50" s="1">
+        <v>654.11500000000001</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2746.6</v>
+      </c>
+      <c r="D50" s="1">
+        <v>8.02</v>
+      </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="A51" s="1">
+        <v>845.24099999999999</v>
+      </c>
+      <c r="B51" s="1">
+        <v>558.44399999999996</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2746.6</v>
+      </c>
+      <c r="D51" s="1">
+        <v>10.050000000000001</v>
+      </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="A52" s="1">
+        <v>848.83799999999997</v>
+      </c>
+      <c r="B52" s="1">
+        <v>462.755</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2746.6</v>
+      </c>
+      <c r="D52" s="1">
+        <v>12.02</v>
+      </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="A53" s="1">
+        <v>853.45100000000002</v>
+      </c>
+      <c r="B53" s="1">
+        <v>364.09300000000002</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2746.6</v>
+      </c>
+      <c r="D53" s="1">
+        <v>14.02</v>
+      </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="A54" s="1">
+        <v>858.42100000000005</v>
+      </c>
+      <c r="B54" s="1">
+        <v>264.27800000000002</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2746.6</v>
+      </c>
+      <c r="D54" s="1">
+        <v>16</v>
+      </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="A55" s="1">
+        <v>818.02599999999995</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1030.713</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2846.3</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="A56" s="1">
+        <v>827.50900000000001</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1806.1020000000001</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2846.3</v>
+      </c>
+      <c r="D56" s="1">
+        <v>-15.97</v>
+      </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="A57" s="1">
+        <v>824.60900000000004</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1707.55</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2846.3</v>
+      </c>
+      <c r="D57" s="1">
+        <v>-14.07</v>
+      </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="A58" s="1">
+        <v>821.69500000000005</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1604.5889999999999</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2846.3</v>
+      </c>
+      <c r="D58" s="1">
+        <v>-12</v>
+      </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="A59" s="1">
+        <v>819.88199999999995</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1506.653</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2846.3</v>
+      </c>
+      <c r="D59" s="1">
+        <v>-10.02</v>
+      </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="A60" s="1">
+        <v>818.49900000000002</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1409.0219999999999</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2846.3</v>
+      </c>
+      <c r="D60" s="1">
+        <v>-8</v>
+      </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="A61" s="1">
+        <v>817.59100000000001</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1313.1569999999999</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2846.3</v>
+      </c>
+      <c r="D61" s="1">
+        <v>-5.97</v>
+      </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="A62" s="1">
+        <v>817.11199999999997</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1218.692</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2846.3</v>
+      </c>
+      <c r="D62" s="1">
+        <v>-3.97</v>
+      </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="A63" s="1">
+        <v>817.38800000000003</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1124.7370000000001</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2846.3</v>
+      </c>
+      <c r="D63" s="1">
+        <v>-1.97</v>
+      </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="A64" s="1">
+        <v>818.02499999999998</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1031.1079999999999</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2846.3</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="A65" s="1">
+        <v>819.101</v>
+      </c>
+      <c r="B65" s="1">
+        <v>936.52200000000005</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2846.3</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2.0299999999999998</v>
+      </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="A66" s="1">
+        <v>821.01400000000001</v>
+      </c>
+      <c r="B66" s="1">
+        <v>842.61900000000003</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2846.3</v>
+      </c>
+      <c r="D66" s="1">
+        <v>4.03</v>
+      </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="A67" s="1">
+        <v>823.07899999999995</v>
+      </c>
+      <c r="B67" s="1">
+        <v>747.96900000000005</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2846.3</v>
+      </c>
+      <c r="D67" s="1">
+        <v>6.03</v>
+      </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="A68" s="1">
+        <v>825.99699999999996</v>
+      </c>
+      <c r="B68" s="1">
+        <v>654.07799999999997</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2846.3</v>
+      </c>
+      <c r="D68" s="1">
+        <v>8.0299999999999994</v>
+      </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="A69" s="1">
+        <v>829.45500000000004</v>
+      </c>
+      <c r="B69" s="1">
+        <v>558.28800000000001</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2846.3</v>
+      </c>
+      <c r="D69" s="1">
+        <v>10.029999999999999</v>
+      </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="A70" s="1">
+        <v>832.904</v>
+      </c>
+      <c r="B70" s="1">
+        <v>462.05399999999997</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2846.3</v>
+      </c>
+      <c r="D70" s="1">
+        <v>12.03</v>
+      </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="A71" s="1">
+        <v>837.41200000000003</v>
+      </c>
+      <c r="B71" s="1">
+        <v>363.988</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2846.3</v>
+      </c>
+      <c r="D71" s="1">
+        <v>14.03</v>
+      </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="A72" s="1">
+        <v>842.005</v>
+      </c>
+      <c r="B72" s="1">
+        <v>264.06599999999997</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2846.3</v>
+      </c>
+      <c r="D72" s="1">
+        <v>16.03</v>
+      </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="A73" s="1">
+        <v>803.50699999999995</v>
+      </c>
+      <c r="B73" s="1">
+        <v>1030.798</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2946</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="A74" s="1">
+        <v>812.51199999999994</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1805.356</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2946</v>
+      </c>
+      <c r="D74" s="1">
+        <v>-15.97</v>
+      </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="A75" s="1">
+        <v>809.61599999999999</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1706.673</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2946</v>
+      </c>
+      <c r="D75" s="1">
+        <v>-14.07</v>
+      </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="A76" s="1">
+        <v>806.88400000000001</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1603.818</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2946</v>
+      </c>
+      <c r="D76" s="1">
+        <v>-12.03</v>
+      </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="A77" s="1">
+        <v>805.03599999999994</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1504.5319999999999</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2946</v>
+      </c>
+      <c r="D77" s="1">
+        <v>-10</v>
+      </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="A78" s="1">
+        <v>803.64800000000002</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1408.2180000000001</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2946</v>
+      </c>
+      <c r="D78" s="1">
+        <v>-8</v>
+      </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="A79" s="1">
+        <v>802.95</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1312.348</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2946</v>
+      </c>
+      <c r="D79" s="1">
+        <v>-5.97</v>
+      </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="A80" s="1">
+        <v>802.73900000000003</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1218.2670000000001</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2946</v>
+      </c>
+      <c r="D80" s="1">
+        <v>-3.97</v>
+      </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="A81" s="1">
+        <v>802.95299999999997</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1124.4929999999999</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2946</v>
+      </c>
+      <c r="D81" s="1">
+        <v>-1.97</v>
+      </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="A82" s="1">
+        <v>803.53399999999999</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1030.6400000000001</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2946</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="A83" s="1">
+        <v>804.86599999999999</v>
+      </c>
+      <c r="B83" s="1">
+        <v>936.29200000000003</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2946</v>
+      </c>
+      <c r="D83" s="1">
+        <v>2.0299999999999998</v>
+      </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="A84" s="1">
+        <v>806.35799999999995</v>
+      </c>
+      <c r="B84" s="1">
+        <v>842.63599999999997</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2946</v>
+      </c>
+      <c r="D84" s="1">
+        <v>4.03</v>
+      </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="A85" s="1">
+        <v>808.64200000000005</v>
+      </c>
+      <c r="B85" s="1">
+        <v>748.58399999999995</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2946</v>
+      </c>
+      <c r="D85" s="1">
+        <v>6.03</v>
+      </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="A86" s="1">
+        <v>811.28499999999997</v>
+      </c>
+      <c r="B86" s="1">
+        <v>654.41899999999998</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2946</v>
+      </c>
+      <c r="D86" s="1">
+        <v>8.0299999999999994</v>
+      </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="A87" s="1">
+        <v>814.49900000000002</v>
+      </c>
+      <c r="B87" s="1">
+        <v>559.31500000000005</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2946</v>
+      </c>
+      <c r="D87" s="1">
+        <v>10.029999999999999</v>
+      </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="A88" s="1">
+        <v>818.30100000000004</v>
+      </c>
+      <c r="B88" s="1">
+        <v>462.36799999999999</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2946</v>
+      </c>
+      <c r="D88" s="1">
+        <v>12.03</v>
+      </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="A89" s="1">
+        <v>822.29700000000003</v>
+      </c>
+      <c r="B89" s="1">
+        <v>365.065</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2946</v>
+      </c>
+      <c r="D89" s="1">
+        <v>14.03</v>
+      </c>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="A90" s="1">
+        <v>826.71600000000001</v>
+      </c>
+      <c r="B90" s="1">
+        <v>264.70499999999998</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2946</v>
+      </c>
+      <c r="D90" s="1">
+        <v>16.03</v>
+      </c>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">

--- a/cam7_validation.xlsx
+++ b/cam7_validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EA7125-9C5E-418D-AE8B-17DC84327E45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1935AF-CB66-4B35-A4C0-C63B1274A52B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9257" yWindow="5074" windowWidth="24686" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="754" yWindow="754" windowWidth="16192" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -357,13 +357,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>868.995</v>
+        <v>858.048</v>
       </c>
       <c r="B1" s="1">
-        <v>1030.8320000000001</v>
+        <v>1030.7550000000001</v>
       </c>
       <c r="C1" s="1">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -372,268 +372,268 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>880.36300000000006</v>
+        <v>883.02700000000004</v>
       </c>
       <c r="B2" s="1">
-        <v>1808.694</v>
+        <v>1785.29</v>
       </c>
       <c r="C2" s="1">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="D2" s="1">
-        <v>-16</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>876.87900000000002</v>
+        <v>877.51499999999999</v>
       </c>
       <c r="B3" s="1">
-        <v>1709.001</v>
+        <v>1680.4929999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="D3" s="1">
-        <v>-14.05</v>
+        <v>-13.95</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>873.52800000000002</v>
+        <v>872.702</v>
       </c>
       <c r="B4" s="1">
-        <v>1606.4770000000001</v>
+        <v>1583.4760000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="D4" s="1">
-        <v>-12.03</v>
+        <v>-11.93</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>871.13199999999995</v>
+        <v>869.04</v>
       </c>
       <c r="B5" s="1">
-        <v>1507.146</v>
+        <v>1489.47</v>
       </c>
       <c r="C5" s="1">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="D5" s="1">
-        <v>-10</v>
+        <v>-9.93</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>869.53200000000004</v>
+        <v>865.53499999999997</v>
       </c>
       <c r="B6" s="1">
-        <v>1410.058</v>
+        <v>1396.1079999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="D6" s="1">
-        <v>-8</v>
+        <v>-7.93</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>868.51599999999996</v>
+        <v>862.96600000000001</v>
       </c>
       <c r="B7" s="1">
-        <v>1313.6079999999999</v>
+        <v>1303.356</v>
       </c>
       <c r="C7" s="1">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="D7" s="1">
-        <v>-5.97</v>
+        <v>-5.93</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>868.23500000000001</v>
+        <v>860.94200000000001</v>
       </c>
       <c r="B8" s="1">
-        <v>1218.7539999999999</v>
+        <v>1210.9010000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="D8" s="1">
-        <v>-4</v>
+        <v>-3.9</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>868.10799999999995</v>
+        <v>859.05899999999997</v>
       </c>
       <c r="B9" s="1">
-        <v>1123.5360000000001</v>
+        <v>1119.95</v>
       </c>
       <c r="C9" s="1">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="D9" s="1">
-        <v>-1.97</v>
+        <v>-1.93</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>868.98800000000006</v>
+        <v>858.04300000000001</v>
       </c>
       <c r="B10" s="1">
-        <v>1029.7149999999999</v>
+        <v>1028.241</v>
       </c>
       <c r="C10" s="1">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="D10" s="1">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>870</v>
+        <v>857.61500000000001</v>
       </c>
       <c r="B11" s="1">
-        <v>936.08</v>
+        <v>936.47500000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0299999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>871.86800000000005</v>
+        <v>857.73599999999999</v>
       </c>
       <c r="B12" s="1">
-        <v>841.71600000000001</v>
+        <v>844.59</v>
       </c>
       <c r="C12" s="1">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="D12" s="1">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>874.04</v>
+        <v>858.053</v>
       </c>
       <c r="B13" s="1">
-        <v>747.47299999999996</v>
+        <v>751.74400000000003</v>
       </c>
       <c r="C13" s="1">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="D13" s="1">
-        <v>6.03</v>
+        <v>6.05</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>877.04499999999996</v>
+        <v>859.476</v>
       </c>
       <c r="B14" s="1">
-        <v>652.54700000000003</v>
+        <v>657.29200000000003</v>
       </c>
       <c r="C14" s="1">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="D14" s="1">
-        <v>8.0299999999999994</v>
+        <v>8.07</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>880.697</v>
+        <v>861.01400000000001</v>
       </c>
       <c r="B15" s="1">
-        <v>556.68899999999996</v>
+        <v>562.904</v>
       </c>
       <c r="C15" s="1">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="D15" s="1">
-        <v>10.029999999999999</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>884.68899999999996</v>
+        <v>863.53099999999995</v>
       </c>
       <c r="B16" s="1">
-        <v>460.17700000000002</v>
+        <v>467.262</v>
       </c>
       <c r="C16" s="1">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="D16" s="1">
-        <v>12.03</v>
+        <v>12.05</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>889.49099999999999</v>
+        <v>866.08199999999999</v>
       </c>
       <c r="B17" s="1">
-        <v>361.89</v>
+        <v>369.56200000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="D17" s="1">
-        <v>14.03</v>
+        <v>14.02</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>894.59100000000001</v>
+        <v>869.75699999999995</v>
       </c>
       <c r="B18" s="1">
-        <v>261.839</v>
+        <v>270.137</v>
       </c>
       <c r="C18" s="1">
-        <v>2547.1999999999998</v>
+        <v>2547.9</v>
       </c>
       <c r="D18" s="1">
-        <v>16</v>
+        <v>16.02</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>850.68100000000004</v>
+        <v>839.93700000000001</v>
       </c>
       <c r="B19" s="1">
-        <v>1030.8530000000001</v>
+        <v>1030.8979999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -642,238 +642,238 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>861.39</v>
+        <v>864.12099999999998</v>
       </c>
       <c r="B20" s="1">
-        <v>1808.489</v>
+        <v>1784.3119999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="D20" s="1">
-        <v>-15.97</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>857.98800000000006</v>
+        <v>858.798</v>
       </c>
       <c r="B21" s="1">
-        <v>1709.8620000000001</v>
+        <v>1679.0609999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="D21" s="1">
-        <v>-14.05</v>
+        <v>-13.95</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>854.97400000000005</v>
+        <v>854.31399999999996</v>
       </c>
       <c r="B22" s="1">
-        <v>1607.46</v>
+        <v>1582.3630000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="D22" s="1">
-        <v>-12.03</v>
+        <v>-11.92</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>852.85</v>
+        <v>850.5</v>
       </c>
       <c r="B23" s="1">
-        <v>1507.8689999999999</v>
+        <v>1488.624</v>
       </c>
       <c r="C23" s="1">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="D23" s="1">
-        <v>-10</v>
+        <v>-9.92</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>851.14</v>
+        <v>847.41099999999994</v>
       </c>
       <c r="B24" s="1">
-        <v>1410.184</v>
+        <v>1395.4090000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="D24" s="1">
-        <v>-8</v>
+        <v>-7.95</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>850.42200000000003</v>
+        <v>844.59</v>
       </c>
       <c r="B25" s="1">
-        <v>1315.0630000000001</v>
+        <v>1302.595</v>
       </c>
       <c r="C25" s="1">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="D25" s="1">
-        <v>-5.97</v>
+        <v>-5.92</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>849.71</v>
+        <v>842.75400000000002</v>
       </c>
       <c r="B26" s="1">
-        <v>1219.489</v>
+        <v>1212.107</v>
       </c>
       <c r="C26" s="1">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="D26" s="1">
-        <v>-4</v>
+        <v>-3.95</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>849.99400000000003</v>
+        <v>840.96900000000005</v>
       </c>
       <c r="B27" s="1">
-        <v>1124.4760000000001</v>
+        <v>1118.7739999999999</v>
       </c>
       <c r="C27" s="1">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="D27" s="1">
-        <v>-1.95</v>
+        <v>-1.92</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>850.69</v>
+        <v>839.92100000000005</v>
       </c>
       <c r="B28" s="1">
-        <v>1031.8209999999999</v>
+        <v>1027.722</v>
       </c>
       <c r="C28" s="1">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>851.89700000000005</v>
+        <v>839.18499999999995</v>
       </c>
       <c r="B29" s="1">
-        <v>936.59</v>
+        <v>935.93200000000002</v>
       </c>
       <c r="C29" s="1">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="D29" s="1">
-        <v>2.0299999999999998</v>
+        <v>2.08</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>853.53399999999999</v>
+        <v>839.19799999999998</v>
       </c>
       <c r="B30" s="1">
-        <v>843.17200000000003</v>
+        <v>844.21299999999997</v>
       </c>
       <c r="C30" s="1">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="D30" s="1">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>855.96400000000006</v>
+        <v>839.971</v>
       </c>
       <c r="B31" s="1">
-        <v>749.048</v>
+        <v>751.71699999999998</v>
       </c>
       <c r="C31" s="1">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="D31" s="1">
-        <v>6.03</v>
+        <v>6.05</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>858.87400000000002</v>
+        <v>841.00099999999998</v>
       </c>
       <c r="B32" s="1">
-        <v>654.01</v>
+        <v>657.59</v>
       </c>
       <c r="C32" s="1">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="D32" s="1">
-        <v>8.0299999999999994</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>862.25400000000002</v>
+        <v>842.71</v>
       </c>
       <c r="B33" s="1">
-        <v>558.726</v>
+        <v>562.77599999999995</v>
       </c>
       <c r="C33" s="1">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="D33" s="1">
-        <v>10.029999999999999</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>866.33299999999997</v>
+        <v>844.95600000000002</v>
       </c>
       <c r="B34" s="1">
-        <v>461.404</v>
+        <v>466.93200000000002</v>
       </c>
       <c r="C34" s="1">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="D34" s="1">
-        <v>12.03</v>
+        <v>12.05</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>870.51</v>
+        <v>847.44399999999996</v>
       </c>
       <c r="B35" s="1">
-        <v>363.94299999999998</v>
+        <v>370.14299999999997</v>
       </c>
       <c r="C35" s="1">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="D35" s="1">
         <v>14.03</v>
@@ -882,13 +882,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>875.55700000000002</v>
+        <v>850.91099999999994</v>
       </c>
       <c r="B36" s="1">
-        <v>263.55399999999997</v>
+        <v>268.59399999999999</v>
       </c>
       <c r="C36" s="1">
-        <v>2646.9</v>
+        <v>2647.6</v>
       </c>
       <c r="D36" s="1">
         <v>16.03</v>
@@ -897,13 +897,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>833.89700000000005</v>
+        <v>823.00400000000002</v>
       </c>
       <c r="B37" s="1">
-        <v>1030.8019999999999</v>
+        <v>1030.6890000000001</v>
       </c>
       <c r="C37" s="1">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -912,208 +912,208 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>843.70600000000002</v>
+        <v>846.58100000000002</v>
       </c>
       <c r="B38" s="1">
-        <v>1807.2539999999999</v>
+        <v>1784.261</v>
       </c>
       <c r="C38" s="1">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="D38" s="1">
-        <v>-15.98</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>840.65599999999995</v>
+        <v>841.40899999999999</v>
       </c>
       <c r="B39" s="1">
-        <v>1708.319</v>
+        <v>1678.673</v>
       </c>
       <c r="C39" s="1">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="D39" s="1">
-        <v>-14.05</v>
+        <v>-13.95</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>837.70600000000002</v>
+        <v>837.28399999999999</v>
       </c>
       <c r="B40" s="1">
-        <v>1606.54</v>
+        <v>1581.873</v>
       </c>
       <c r="C40" s="1">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="D40" s="1">
-        <v>-12.03</v>
+        <v>-11.92</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>835.7</v>
+        <v>833.49400000000003</v>
       </c>
       <c r="B41" s="1">
-        <v>1507.2729999999999</v>
+        <v>1488.4269999999999</v>
       </c>
       <c r="C41" s="1">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="D41" s="1">
-        <v>-10</v>
+        <v>-9.92</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>834.4</v>
+        <v>830.37300000000005</v>
       </c>
       <c r="B42" s="1">
-        <v>1410.2909999999999</v>
+        <v>1394.9760000000001</v>
       </c>
       <c r="C42" s="1">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="D42" s="1">
-        <v>-8</v>
+        <v>-7.92</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>833.42700000000002</v>
+        <v>827.76199999999994</v>
       </c>
       <c r="B43" s="1">
-        <v>1314</v>
+        <v>1302.1030000000001</v>
       </c>
       <c r="C43" s="1">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="D43" s="1">
-        <v>-5.98</v>
+        <v>-5.92</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>832.93899999999996</v>
+        <v>825.71199999999999</v>
       </c>
       <c r="B44" s="1">
-        <v>1219.8699999999999</v>
+        <v>1211.4390000000001</v>
       </c>
       <c r="C44" s="1">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="D44" s="1">
-        <v>-3.98</v>
+        <v>-3.92</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>833.00099999999998</v>
+        <v>824.02099999999996</v>
       </c>
       <c r="B45" s="1">
-        <v>1125.646</v>
+        <v>1120.453</v>
       </c>
       <c r="C45" s="1">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="D45" s="1">
-        <v>-1.98</v>
+        <v>-1.95</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>833.89400000000001</v>
+        <v>823.01199999999994</v>
       </c>
       <c r="B46" s="1">
-        <v>1031.6880000000001</v>
+        <v>1027.683</v>
       </c>
       <c r="C46" s="1">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="D46" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>834.98099999999999</v>
+        <v>822.38699999999994</v>
       </c>
       <c r="B47" s="1">
-        <v>937.23400000000004</v>
+        <v>936.28399999999999</v>
       </c>
       <c r="C47" s="1">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="D47" s="1">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>836.86300000000006</v>
+        <v>822.44399999999996</v>
       </c>
       <c r="B48" s="1">
-        <v>842.96100000000001</v>
+        <v>844.89499999999998</v>
       </c>
       <c r="C48" s="1">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="D48" s="1">
-        <v>4.0199999999999996</v>
+        <v>4.05</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>838.97699999999998</v>
+        <v>822.98500000000001</v>
       </c>
       <c r="B49" s="1">
-        <v>748.428</v>
+        <v>751.97199999999998</v>
       </c>
       <c r="C49" s="1">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="D49" s="1">
-        <v>6.02</v>
+        <v>6.05</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>841.851</v>
+        <v>824.01099999999997</v>
       </c>
       <c r="B50" s="1">
-        <v>654.11500000000001</v>
+        <v>658.59400000000005</v>
       </c>
       <c r="C50" s="1">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="D50" s="1">
-        <v>8.02</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>845.24099999999999</v>
+        <v>825.53899999999999</v>
       </c>
       <c r="B51" s="1">
-        <v>558.44399999999996</v>
+        <v>563.33199999999999</v>
       </c>
       <c r="C51" s="1">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="D51" s="1">
         <v>10.050000000000001</v>
@@ -1122,58 +1122,58 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>848.83799999999997</v>
+        <v>827.721</v>
       </c>
       <c r="B52" s="1">
-        <v>462.755</v>
+        <v>468.28</v>
       </c>
       <c r="C52" s="1">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="D52" s="1">
-        <v>12.02</v>
+        <v>12.05</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>853.45100000000002</v>
+        <v>830.13300000000004</v>
       </c>
       <c r="B53" s="1">
-        <v>364.09300000000002</v>
+        <v>370.50599999999997</v>
       </c>
       <c r="C53" s="1">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="D53" s="1">
-        <v>14.02</v>
+        <v>14.03</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>858.42100000000005</v>
+        <v>833.41800000000001</v>
       </c>
       <c r="B54" s="1">
-        <v>264.27800000000002</v>
+        <v>271.05200000000002</v>
       </c>
       <c r="C54" s="1">
-        <v>2746.6</v>
+        <v>2747.3</v>
       </c>
       <c r="D54" s="1">
-        <v>16</v>
+        <v>16.03</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>818.02599999999995</v>
+        <v>807.38099999999997</v>
       </c>
       <c r="B55" s="1">
-        <v>1030.713</v>
+        <v>1030.8</v>
       </c>
       <c r="C55" s="1">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1182,238 +1182,238 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>827.50900000000001</v>
+        <v>830.54700000000003</v>
       </c>
       <c r="B56" s="1">
-        <v>1806.1020000000001</v>
+        <v>1783.6220000000001</v>
       </c>
       <c r="C56" s="1">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="D56" s="1">
-        <v>-15.97</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>824.60900000000004</v>
+        <v>825.35500000000002</v>
       </c>
       <c r="B57" s="1">
-        <v>1707.55</v>
+        <v>1678.607</v>
       </c>
       <c r="C57" s="1">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="D57" s="1">
-        <v>-14.07</v>
+        <v>-13.95</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>821.69500000000005</v>
+        <v>821.17100000000005</v>
       </c>
       <c r="B58" s="1">
-        <v>1604.5889999999999</v>
+        <v>1582.1890000000001</v>
       </c>
       <c r="C58" s="1">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="D58" s="1">
-        <v>-12</v>
+        <v>-11.92</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>819.88199999999995</v>
+        <v>817.52700000000004</v>
       </c>
       <c r="B59" s="1">
-        <v>1506.653</v>
+        <v>1488.0840000000001</v>
       </c>
       <c r="C59" s="1">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="D59" s="1">
-        <v>-10.02</v>
+        <v>-9.92</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>818.49900000000002</v>
+        <v>814.51300000000003</v>
       </c>
       <c r="B60" s="1">
-        <v>1409.0219999999999</v>
+        <v>1395.029</v>
       </c>
       <c r="C60" s="1">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="D60" s="1">
-        <v>-8</v>
+        <v>-7.92</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>817.59100000000001</v>
+        <v>811.99900000000002</v>
       </c>
       <c r="B61" s="1">
-        <v>1313.1569999999999</v>
+        <v>1302.4570000000001</v>
       </c>
       <c r="C61" s="1">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="D61" s="1">
-        <v>-5.97</v>
+        <v>-5.92</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>817.11199999999997</v>
+        <v>809.99800000000005</v>
       </c>
       <c r="B62" s="1">
-        <v>1218.692</v>
+        <v>1211.154</v>
       </c>
       <c r="C62" s="1">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="D62" s="1">
-        <v>-3.97</v>
+        <v>-3.92</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>817.38800000000003</v>
+        <v>808.33399999999995</v>
       </c>
       <c r="B63" s="1">
-        <v>1124.7370000000001</v>
+        <v>1119.4880000000001</v>
       </c>
       <c r="C63" s="1">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="D63" s="1">
-        <v>-1.97</v>
+        <v>-1.92</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>818.02499999999998</v>
+        <v>807.40099999999995</v>
       </c>
       <c r="B64" s="1">
-        <v>1031.1079999999999</v>
+        <v>1029.8140000000001</v>
       </c>
       <c r="C64" s="1">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="D64" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>819.101</v>
+        <v>806.83</v>
       </c>
       <c r="B65" s="1">
-        <v>936.52200000000005</v>
+        <v>936.81299999999999</v>
       </c>
       <c r="C65" s="1">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="D65" s="1">
-        <v>2.0299999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>821.01400000000001</v>
+        <v>806.67200000000003</v>
       </c>
       <c r="B66" s="1">
-        <v>842.61900000000003</v>
+        <v>843.12099999999998</v>
       </c>
       <c r="C66" s="1">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="D66" s="1">
-        <v>4.03</v>
+        <v>4.08</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>823.07899999999995</v>
+        <v>807.07500000000005</v>
       </c>
       <c r="B67" s="1">
-        <v>747.96900000000005</v>
+        <v>754.66700000000003</v>
       </c>
       <c r="C67" s="1">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="D67" s="1">
-        <v>6.03</v>
+        <v>6.05</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>825.99699999999996</v>
+        <v>808.14499999999998</v>
       </c>
       <c r="B68" s="1">
-        <v>654.07799999999997</v>
+        <v>658.47</v>
       </c>
       <c r="C68" s="1">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="D68" s="1">
-        <v>8.0299999999999994</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>829.45500000000004</v>
+        <v>809.96199999999999</v>
       </c>
       <c r="B69" s="1">
-        <v>558.28800000000001</v>
+        <v>564.39</v>
       </c>
       <c r="C69" s="1">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="D69" s="1">
-        <v>10.029999999999999</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>832.904</v>
+        <v>811.80499999999995</v>
       </c>
       <c r="B70" s="1">
-        <v>462.05399999999997</v>
+        <v>468.97</v>
       </c>
       <c r="C70" s="1">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="D70" s="1">
-        <v>12.03</v>
+        <v>12.05</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>837.41200000000003</v>
+        <v>814.04399999999998</v>
       </c>
       <c r="B71" s="1">
-        <v>363.988</v>
+        <v>371.57900000000001</v>
       </c>
       <c r="C71" s="1">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="D71" s="1">
         <v>14.03</v>
@@ -1422,13 +1422,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>842.005</v>
+        <v>817.01599999999996</v>
       </c>
       <c r="B72" s="1">
-        <v>264.06599999999997</v>
+        <v>271.03100000000001</v>
       </c>
       <c r="C72" s="1">
-        <v>2846.3</v>
+        <v>2847</v>
       </c>
       <c r="D72" s="1">
         <v>16.03</v>
@@ -1437,13 +1437,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>803.50699999999995</v>
+        <v>792.93899999999996</v>
       </c>
       <c r="B73" s="1">
-        <v>1030.798</v>
+        <v>1030.4090000000001</v>
       </c>
       <c r="C73" s="1">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -1452,238 +1452,238 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>812.51199999999994</v>
+        <v>815.49</v>
       </c>
       <c r="B74" s="1">
-        <v>1805.356</v>
+        <v>1782.9459999999999</v>
       </c>
       <c r="C74" s="1">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="D74" s="1">
-        <v>-15.97</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>809.61599999999999</v>
+        <v>810.44899999999996</v>
       </c>
       <c r="B75" s="1">
-        <v>1706.673</v>
+        <v>1678.1679999999999</v>
       </c>
       <c r="C75" s="1">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="D75" s="1">
-        <v>-14.07</v>
+        <v>-13.95</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>806.88400000000001</v>
+        <v>806.46500000000003</v>
       </c>
       <c r="B76" s="1">
-        <v>1603.818</v>
+        <v>1582.16</v>
       </c>
       <c r="C76" s="1">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="D76" s="1">
-        <v>-12.03</v>
+        <v>-11.92</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>805.03599999999994</v>
+        <v>802.78800000000001</v>
       </c>
       <c r="B77" s="1">
-        <v>1504.5319999999999</v>
+        <v>1487.8009999999999</v>
       </c>
       <c r="C77" s="1">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="D77" s="1">
-        <v>-10</v>
+        <v>-9.92</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>803.64800000000002</v>
+        <v>799.87300000000005</v>
       </c>
       <c r="B78" s="1">
-        <v>1408.2180000000001</v>
+        <v>1394.925</v>
       </c>
       <c r="C78" s="1">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="D78" s="1">
-        <v>-8</v>
+        <v>-7.92</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>802.95</v>
+        <v>797.23099999999999</v>
       </c>
       <c r="B79" s="1">
-        <v>1312.348</v>
+        <v>1302.6880000000001</v>
       </c>
       <c r="C79" s="1">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="D79" s="1">
-        <v>-5.97</v>
+        <v>-5.92</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>802.73900000000003</v>
+        <v>795.28099999999995</v>
       </c>
       <c r="B80" s="1">
-        <v>1218.2670000000001</v>
+        <v>1210.7380000000001</v>
       </c>
       <c r="C80" s="1">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="D80" s="1">
-        <v>-3.97</v>
+        <v>-3.92</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>802.95299999999997</v>
+        <v>793.97900000000004</v>
       </c>
       <c r="B81" s="1">
-        <v>1124.4929999999999</v>
+        <v>1119.6880000000001</v>
       </c>
       <c r="C81" s="1">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="D81" s="1">
-        <v>-1.97</v>
+        <v>-1.92</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>803.53399999999999</v>
+        <v>792.92</v>
       </c>
       <c r="B82" s="1">
-        <v>1030.6400000000001</v>
+        <v>1029.5609999999999</v>
       </c>
       <c r="C82" s="1">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>804.86599999999999</v>
+        <v>792.30799999999999</v>
       </c>
       <c r="B83" s="1">
-        <v>936.29200000000003</v>
+        <v>938.23900000000003</v>
       </c>
       <c r="C83" s="1">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="D83" s="1">
-        <v>2.0299999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>806.35799999999995</v>
+        <v>792.28300000000002</v>
       </c>
       <c r="B84" s="1">
-        <v>842.63599999999997</v>
+        <v>844.93899999999996</v>
       </c>
       <c r="C84" s="1">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="D84" s="1">
-        <v>4.03</v>
+        <v>4.08</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>808.64200000000005</v>
+        <v>792.505</v>
       </c>
       <c r="B85" s="1">
-        <v>748.58399999999995</v>
+        <v>753.78</v>
       </c>
       <c r="C85" s="1">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="D85" s="1">
-        <v>6.03</v>
+        <v>6.05</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>811.28499999999997</v>
+        <v>793.66200000000003</v>
       </c>
       <c r="B86" s="1">
-        <v>654.41899999999998</v>
+        <v>659.44100000000003</v>
       </c>
       <c r="C86" s="1">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="D86" s="1">
-        <v>8.0299999999999994</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>814.49900000000002</v>
+        <v>795.00199999999995</v>
       </c>
       <c r="B87" s="1">
-        <v>559.31500000000005</v>
+        <v>565.50800000000004</v>
       </c>
       <c r="C87" s="1">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="D87" s="1">
-        <v>10.029999999999999</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>818.30100000000004</v>
+        <v>796.89</v>
       </c>
       <c r="B88" s="1">
-        <v>462.36799999999999</v>
+        <v>470.82900000000001</v>
       </c>
       <c r="C88" s="1">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="D88" s="1">
-        <v>12.03</v>
+        <v>12.05</v>
       </c>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>822.29700000000003</v>
+        <v>799.20799999999997</v>
       </c>
       <c r="B89" s="1">
-        <v>365.065</v>
+        <v>372.37299999999999</v>
       </c>
       <c r="C89" s="1">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="D89" s="1">
         <v>14.03</v>
@@ -1692,13 +1692,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>826.71600000000001</v>
+        <v>801.87300000000005</v>
       </c>
       <c r="B90" s="1">
-        <v>264.70499999999998</v>
+        <v>274.84699999999998</v>
       </c>
       <c r="C90" s="1">
-        <v>2946</v>
+        <v>2946.7</v>
       </c>
       <c r="D90" s="1">
         <v>16.03</v>

--- a/cam7_validation.xlsx
+++ b/cam7_validation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1935AF-CB66-4B35-A4C0-C63B1274A52B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CEF90C-D08C-4F71-9C34-9C723A59D70F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="754" yWindow="754" windowWidth="16192" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11657" yWindow="3429" windowWidth="17717" windowHeight="13225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -347,23 +347,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D90"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>858.048</v>
+        <v>919.11500000000001</v>
       </c>
       <c r="B1" s="1">
-        <v>1030.7550000000001</v>
+        <v>1030.576</v>
       </c>
       <c r="C1" s="1">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -372,1337 +372,1289 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>883.02700000000004</v>
+        <v>941.47799999999995</v>
       </c>
       <c r="B2" s="1">
-        <v>1785.29</v>
+        <v>1802.6310000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D2" s="1">
-        <v>-16.079999999999998</v>
+        <v>-16.07</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>877.51499999999999</v>
+        <v>932.20699999999999</v>
       </c>
       <c r="B3" s="1">
-        <v>1680.4929999999999</v>
+        <v>1620.287</v>
       </c>
       <c r="C3" s="1">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D3" s="1">
-        <v>-13.95</v>
+        <v>-12</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>872.702</v>
+        <v>928.86599999999999</v>
       </c>
       <c r="B4" s="1">
-        <v>1583.4760000000001</v>
+        <v>1542.607</v>
       </c>
       <c r="C4" s="1">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D4" s="1">
-        <v>-11.93</v>
+        <v>-9.9700000000000006</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>869.04</v>
+        <v>924.67</v>
       </c>
       <c r="B5" s="1">
-        <v>1489.47</v>
+        <v>1412.415</v>
       </c>
       <c r="C5" s="1">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D5" s="1">
-        <v>-9.93</v>
+        <v>-7.97</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>865.53499999999997</v>
+        <v>920.34900000000005</v>
       </c>
       <c r="B6" s="1">
-        <v>1396.1079999999999</v>
+        <v>1218.7829999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D6" s="1">
-        <v>-7.93</v>
+        <v>-3.97</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>862.96600000000001</v>
+        <v>919.52300000000002</v>
       </c>
       <c r="B7" s="1">
-        <v>1303.356</v>
+        <v>1124.577</v>
       </c>
       <c r="C7" s="1">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D7" s="1">
-        <v>-5.93</v>
+        <v>-2</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>860.94200000000001</v>
+        <v>919.10500000000002</v>
       </c>
       <c r="B8" s="1">
-        <v>1210.9010000000001</v>
+        <v>1030.1300000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D8" s="1">
-        <v>-3.9</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>859.05899999999997</v>
+        <v>919.971</v>
       </c>
       <c r="B9" s="1">
-        <v>1119.95</v>
+        <v>936.12300000000005</v>
       </c>
       <c r="C9" s="1">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D9" s="1">
-        <v>-1.93</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>858.04300000000001</v>
+        <v>921</v>
       </c>
       <c r="B10" s="1">
-        <v>1028.241</v>
+        <v>841.029</v>
       </c>
       <c r="C10" s="1">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D10" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>3.98</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>857.61500000000001</v>
+        <v>922.81700000000001</v>
       </c>
       <c r="B11" s="1">
-        <v>936.47500000000002</v>
+        <v>744.58</v>
       </c>
       <c r="C11" s="1">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0699999999999998</v>
+        <v>5.98</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>857.73599999999999</v>
+        <v>925.44600000000003</v>
       </c>
       <c r="B12" s="1">
-        <v>844.59</v>
+        <v>647.851</v>
       </c>
       <c r="C12" s="1">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D12" s="1">
-        <v>4.05</v>
+        <v>7.95</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>858.053</v>
+        <v>928.81299999999999</v>
       </c>
       <c r="B13" s="1">
-        <v>751.74400000000003</v>
+        <v>548.54200000000003</v>
       </c>
       <c r="C13" s="1">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D13" s="1">
-        <v>6.05</v>
+        <v>9.98</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>859.476</v>
+        <v>932.87099999999998</v>
       </c>
       <c r="B14" s="1">
-        <v>657.29200000000003</v>
+        <v>450.18900000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D14" s="1">
-        <v>8.07</v>
+        <v>11.98</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>861.01400000000001</v>
+        <v>937.57399999999996</v>
       </c>
       <c r="B15" s="1">
-        <v>562.904</v>
+        <v>350.34399999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D15" s="1">
-        <v>10.050000000000001</v>
+        <v>13.98</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>863.53099999999995</v>
+        <v>943.245</v>
       </c>
       <c r="B16" s="1">
-        <v>467.262</v>
+        <v>247.59700000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>2547.9</v>
+        <v>2550.4</v>
       </c>
       <c r="D16" s="1">
-        <v>12.05</v>
+        <v>15.93</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>866.08199999999999</v>
+        <v>901.07500000000005</v>
       </c>
       <c r="B17" s="1">
-        <v>369.56200000000001</v>
+        <v>1030.5550000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>2547.9</v>
+        <v>2650.1</v>
       </c>
       <c r="D17" s="1">
-        <v>14.02</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>869.75699999999995</v>
+        <v>922.54300000000001</v>
       </c>
       <c r="B18" s="1">
-        <v>270.137</v>
+        <v>1801.894</v>
       </c>
       <c r="C18" s="1">
-        <v>2547.9</v>
+        <v>2650.1</v>
       </c>
       <c r="D18" s="1">
-        <v>16.02</v>
+        <v>-16.07</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>839.93700000000001</v>
+        <v>912.63800000000003</v>
       </c>
       <c r="B19" s="1">
-        <v>1030.8979999999999</v>
+        <v>1599.4349999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>-11.97</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>864.12099999999998</v>
+        <v>909.18899999999996</v>
       </c>
       <c r="B20" s="1">
-        <v>1784.3119999999999</v>
+        <v>1502.9079999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D20" s="1">
-        <v>-16.100000000000001</v>
+        <v>-9.9700000000000006</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>858.798</v>
+        <v>906.08799999999997</v>
       </c>
       <c r="B21" s="1">
-        <v>1679.0609999999999</v>
+        <v>1408.4390000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D21" s="1">
-        <v>-13.95</v>
+        <v>-7.97</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>854.31399999999996</v>
+        <v>903.99900000000002</v>
       </c>
       <c r="B22" s="1">
-        <v>1582.3630000000001</v>
+        <v>1312.886</v>
       </c>
       <c r="C22" s="1">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D22" s="1">
-        <v>-11.92</v>
+        <v>-6</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>850.5</v>
+        <v>902.20899999999995</v>
       </c>
       <c r="B23" s="1">
-        <v>1488.624</v>
+        <v>1218.653</v>
       </c>
       <c r="C23" s="1">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D23" s="1">
-        <v>-9.92</v>
+        <v>-3.97</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>847.41099999999994</v>
+        <v>901.51400000000001</v>
       </c>
       <c r="B24" s="1">
-        <v>1395.4090000000001</v>
+        <v>1124.627</v>
       </c>
       <c r="C24" s="1">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D24" s="1">
-        <v>-7.95</v>
+        <v>-2</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>844.59</v>
+        <v>901.08199999999999</v>
       </c>
       <c r="B25" s="1">
-        <v>1302.595</v>
+        <v>1030.42</v>
       </c>
       <c r="C25" s="1">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D25" s="1">
-        <v>-5.92</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>842.75400000000002</v>
+        <v>901.83799999999997</v>
       </c>
       <c r="B26" s="1">
-        <v>1212.107</v>
+        <v>936.30399999999997</v>
       </c>
       <c r="C26" s="1">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D26" s="1">
-        <v>-3.95</v>
+        <v>2</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>840.96900000000005</v>
+        <v>902.95399999999995</v>
       </c>
       <c r="B27" s="1">
-        <v>1118.7739999999999</v>
+        <v>841.53099999999995</v>
       </c>
       <c r="C27" s="1">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D27" s="1">
-        <v>-1.92</v>
+        <v>3.98</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>839.92100000000005</v>
+        <v>904.66600000000005</v>
       </c>
       <c r="B28" s="1">
-        <v>1027.722</v>
+        <v>745.05600000000004</v>
       </c>
       <c r="C28" s="1">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D28" s="1">
-        <v>0.08</v>
+        <v>5.98</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>839.18499999999995</v>
+        <v>907.21100000000001</v>
       </c>
       <c r="B29" s="1">
-        <v>935.93200000000002</v>
+        <v>648.74300000000005</v>
       </c>
       <c r="C29" s="1">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D29" s="1">
-        <v>2.08</v>
+        <v>7.95</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>839.19799999999998</v>
+        <v>909.73</v>
       </c>
       <c r="B30" s="1">
-        <v>844.21299999999997</v>
+        <v>569.35500000000002</v>
       </c>
       <c r="C30" s="1">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D30" s="1">
-        <v>4.05</v>
+        <v>9.98</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>839.971</v>
+        <v>914.22500000000002</v>
       </c>
       <c r="B31" s="1">
-        <v>751.71699999999998</v>
+        <v>450.83199999999999</v>
       </c>
       <c r="C31" s="1">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D31" s="1">
-        <v>6.05</v>
+        <v>11.98</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>841.00099999999998</v>
+        <v>918.98400000000004</v>
       </c>
       <c r="B32" s="1">
-        <v>657.59</v>
+        <v>350.96800000000002</v>
       </c>
       <c r="C32" s="1">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D32" s="1">
-        <v>8.0500000000000007</v>
+        <v>13.98</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>842.71</v>
+        <v>924.48400000000004</v>
       </c>
       <c r="B33" s="1">
-        <v>562.77599999999995</v>
+        <v>248.43199999999999</v>
       </c>
       <c r="C33" s="1">
-        <v>2647.6</v>
+        <v>2650.1</v>
       </c>
       <c r="D33" s="1">
-        <v>10.050000000000001</v>
+        <v>15.93</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>844.95600000000002</v>
+        <v>884.5</v>
       </c>
       <c r="B34" s="1">
-        <v>466.93200000000002</v>
+        <v>1030.7529999999999</v>
       </c>
       <c r="C34" s="1">
-        <v>2647.6</v>
+        <v>2749.8</v>
       </c>
       <c r="D34" s="1">
-        <v>12.05</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>847.44399999999996</v>
+        <v>905.44500000000005</v>
       </c>
       <c r="B35" s="1">
-        <v>370.14299999999997</v>
+        <v>1801.4169999999999</v>
       </c>
       <c r="C35" s="1">
-        <v>2647.6</v>
+        <v>2749.8</v>
       </c>
       <c r="D35" s="1">
-        <v>14.03</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>850.91099999999994</v>
+        <v>900.35900000000004</v>
       </c>
       <c r="B36" s="1">
-        <v>268.59399999999999</v>
+        <v>1698.944</v>
       </c>
       <c r="C36" s="1">
-        <v>2647.6</v>
+        <v>2749.8</v>
       </c>
       <c r="D36" s="1">
-        <v>16.03</v>
+        <v>-14</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>823.00400000000002</v>
+        <v>895.80700000000002</v>
       </c>
       <c r="B37" s="1">
-        <v>1030.6890000000001</v>
+        <v>1599.66</v>
       </c>
       <c r="C37" s="1">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>-11.98</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>846.58100000000002</v>
+        <v>892.46199999999999</v>
       </c>
       <c r="B38" s="1">
-        <v>1784.261</v>
+        <v>1504.194</v>
       </c>
       <c r="C38" s="1">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D38" s="1">
-        <v>-16.100000000000001</v>
+        <v>-10</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>841.40899999999999</v>
+        <v>889.41</v>
       </c>
       <c r="B39" s="1">
-        <v>1678.673</v>
+        <v>1408.297</v>
       </c>
       <c r="C39" s="1">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D39" s="1">
-        <v>-13.95</v>
+        <v>-7.98</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>837.28399999999999</v>
+        <v>885.82399999999996</v>
       </c>
       <c r="B40" s="1">
-        <v>1581.873</v>
+        <v>1219.739</v>
       </c>
       <c r="C40" s="1">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D40" s="1">
-        <v>-11.92</v>
+        <v>-3.98</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>833.49400000000003</v>
+        <v>884.52700000000004</v>
       </c>
       <c r="B41" s="1">
-        <v>1488.4269999999999</v>
+        <v>1031.932</v>
       </c>
       <c r="C41" s="1">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D41" s="1">
-        <v>-9.92</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>830.37300000000005</v>
+        <v>885.00900000000001</v>
       </c>
       <c r="B42" s="1">
-        <v>1394.9760000000001</v>
+        <v>937.77099999999996</v>
       </c>
       <c r="C42" s="1">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D42" s="1">
-        <v>-7.92</v>
+        <v>1.97</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>827.76199999999994</v>
+        <v>886.00599999999997</v>
       </c>
       <c r="B43" s="1">
-        <v>1302.1030000000001</v>
+        <v>841.86400000000003</v>
       </c>
       <c r="C43" s="1">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D43" s="1">
-        <v>-5.92</v>
+        <v>4</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>825.71199999999999</v>
+        <v>887.99400000000003</v>
       </c>
       <c r="B44" s="1">
-        <v>1211.4390000000001</v>
+        <v>746.77099999999996</v>
       </c>
       <c r="C44" s="1">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D44" s="1">
-        <v>-3.92</v>
+        <v>5.97</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>824.02099999999996</v>
+        <v>890.22</v>
       </c>
       <c r="B45" s="1">
-        <v>1120.453</v>
+        <v>650.16800000000001</v>
       </c>
       <c r="C45" s="1">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D45" s="1">
-        <v>-1.95</v>
+        <v>7.97</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>823.01199999999994</v>
+        <v>893.51700000000005</v>
       </c>
       <c r="B46" s="1">
-        <v>1027.683</v>
+        <v>552.154</v>
       </c>
       <c r="C46" s="1">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D46" s="1">
-        <v>0.08</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>822.38699999999994</v>
+        <v>897.08299999999997</v>
       </c>
       <c r="B47" s="1">
-        <v>936.28399999999999</v>
+        <v>453.97500000000002</v>
       </c>
       <c r="C47" s="1">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D47" s="1">
-        <v>2.08</v>
+        <v>11.95</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>822.44399999999996</v>
+        <v>901.86099999999999</v>
       </c>
       <c r="B48" s="1">
-        <v>844.89499999999998</v>
+        <v>352.63200000000001</v>
       </c>
       <c r="C48" s="1">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D48" s="1">
-        <v>4.05</v>
+        <v>13.97</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>822.98500000000001</v>
+        <v>905.995</v>
       </c>
       <c r="B49" s="1">
-        <v>751.97199999999998</v>
+        <v>270.60700000000003</v>
       </c>
       <c r="C49" s="1">
-        <v>2747.3</v>
+        <v>2749.8</v>
       </c>
       <c r="D49" s="1">
-        <v>6.05</v>
+        <v>15.95</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>824.01099999999997</v>
+        <v>869.11500000000001</v>
       </c>
       <c r="B50" s="1">
-        <v>658.59400000000005</v>
+        <v>1030.6600000000001</v>
       </c>
       <c r="C50" s="1">
-        <v>2747.3</v>
+        <v>2849.5</v>
       </c>
       <c r="D50" s="1">
-        <v>8.0500000000000007</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>825.53899999999999</v>
+        <v>889.44500000000005</v>
       </c>
       <c r="B51" s="1">
-        <v>563.33199999999999</v>
+        <v>1801.0160000000001</v>
       </c>
       <c r="C51" s="1">
-        <v>2747.3</v>
+        <v>2849.5</v>
       </c>
       <c r="D51" s="1">
-        <v>10.050000000000001</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>827.721</v>
+        <v>884.452</v>
       </c>
       <c r="B52" s="1">
-        <v>468.28</v>
+        <v>1697.6179999999999</v>
       </c>
       <c r="C52" s="1">
-        <v>2747.3</v>
+        <v>2849.5</v>
       </c>
       <c r="D52" s="1">
-        <v>12.05</v>
+        <v>-14</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>830.13300000000004</v>
+        <v>880.07500000000005</v>
       </c>
       <c r="B53" s="1">
-        <v>370.50599999999997</v>
+        <v>1599.1310000000001</v>
       </c>
       <c r="C53" s="1">
-        <v>2747.3</v>
+        <v>2849.5</v>
       </c>
       <c r="D53" s="1">
-        <v>14.03</v>
+        <v>-11.98</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>833.41800000000001</v>
+        <v>876.50099999999998</v>
       </c>
       <c r="B54" s="1">
-        <v>271.05200000000002</v>
+        <v>1503.4059999999999</v>
       </c>
       <c r="C54" s="1">
-        <v>2747.3</v>
+        <v>2849.5</v>
       </c>
       <c r="D54" s="1">
-        <v>16.03</v>
+        <v>-9.98</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>807.38099999999997</v>
+        <v>873.88499999999999</v>
       </c>
       <c r="B55" s="1">
-        <v>1030.8</v>
+        <v>1408.65</v>
       </c>
       <c r="C55" s="1">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>-7.98</v>
       </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>830.54700000000003</v>
+        <v>871.904</v>
       </c>
       <c r="B56" s="1">
-        <v>1783.6220000000001</v>
+        <v>1314.3779999999999</v>
       </c>
       <c r="C56" s="1">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="D56" s="1">
-        <v>-16.100000000000001</v>
+        <v>-6</v>
       </c>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>825.35500000000002</v>
+        <v>870.07299999999998</v>
       </c>
       <c r="B57" s="1">
-        <v>1678.607</v>
+        <v>1219.3330000000001</v>
       </c>
       <c r="C57" s="1">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="D57" s="1">
-        <v>-13.95</v>
+        <v>-3.98</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>821.17100000000005</v>
+        <v>869.41</v>
       </c>
       <c r="B58" s="1">
-        <v>1582.1890000000001</v>
+        <v>1125.5419999999999</v>
       </c>
       <c r="C58" s="1">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="D58" s="1">
-        <v>-11.92</v>
+        <v>-2</v>
       </c>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>817.52700000000004</v>
+        <v>869.5</v>
       </c>
       <c r="B59" s="1">
-        <v>1488.0840000000001</v>
+        <v>937.76099999999997</v>
       </c>
       <c r="C59" s="1">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="D59" s="1">
-        <v>-9.92</v>
+        <v>2</v>
       </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>814.51300000000003</v>
+        <v>870.79300000000001</v>
       </c>
       <c r="B60" s="1">
-        <v>1395.029</v>
+        <v>842.851</v>
       </c>
       <c r="C60" s="1">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="D60" s="1">
-        <v>-7.92</v>
+        <v>3.97</v>
       </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>811.99900000000002</v>
+        <v>872.07600000000002</v>
       </c>
       <c r="B61" s="1">
-        <v>1302.4570000000001</v>
+        <v>746.548</v>
       </c>
       <c r="C61" s="1">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="D61" s="1">
-        <v>-5.92</v>
+        <v>5.97</v>
       </c>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>809.99800000000005</v>
+        <v>874.05899999999997</v>
       </c>
       <c r="B62" s="1">
-        <v>1211.154</v>
+        <v>669.74300000000005</v>
       </c>
       <c r="C62" s="1">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="D62" s="1">
-        <v>-3.92</v>
+        <v>7.97</v>
       </c>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>808.33399999999995</v>
+        <v>877.90800000000002</v>
       </c>
       <c r="B63" s="1">
-        <v>1119.4880000000001</v>
+        <v>552.61900000000003</v>
       </c>
       <c r="C63" s="1">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="D63" s="1">
-        <v>-1.92</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>807.40099999999995</v>
+        <v>881.37599999999998</v>
       </c>
       <c r="B64" s="1">
-        <v>1029.8140000000001</v>
+        <v>454.048</v>
       </c>
       <c r="C64" s="1">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="D64" s="1">
-        <v>0.05</v>
+        <v>11.97</v>
       </c>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>806.83</v>
+        <v>885.89200000000005</v>
       </c>
       <c r="B65" s="1">
-        <v>936.81299999999999</v>
+        <v>354.83</v>
       </c>
       <c r="C65" s="1">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="D65" s="1">
-        <v>2.0499999999999998</v>
+        <v>13.97</v>
       </c>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>806.67200000000003</v>
+        <v>890.94799999999998</v>
       </c>
       <c r="B66" s="1">
-        <v>843.12099999999998</v>
+        <v>251.958</v>
       </c>
       <c r="C66" s="1">
-        <v>2847</v>
+        <v>2849.5</v>
       </c>
       <c r="D66" s="1">
-        <v>4.08</v>
+        <v>15.95</v>
       </c>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>807.07500000000005</v>
+        <v>854.67899999999997</v>
       </c>
       <c r="B67" s="1">
-        <v>754.66700000000003</v>
+        <v>1030.8810000000001</v>
       </c>
       <c r="C67" s="1">
-        <v>2847</v>
+        <v>2949.2</v>
       </c>
       <c r="D67" s="1">
-        <v>6.05</v>
+        <v>0</v>
       </c>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>808.14499999999998</v>
+        <v>874.44100000000003</v>
       </c>
       <c r="B68" s="1">
-        <v>658.47</v>
+        <v>1799.556</v>
       </c>
       <c r="C68" s="1">
-        <v>2847</v>
+        <v>2949.2</v>
       </c>
       <c r="D68" s="1">
-        <v>8.0500000000000007</v>
+        <v>-16.07</v>
       </c>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>809.96199999999999</v>
+        <v>869.47</v>
       </c>
       <c r="B69" s="1">
-        <v>564.39</v>
+        <v>1696.8389999999999</v>
       </c>
       <c r="C69" s="1">
-        <v>2847</v>
+        <v>2949.2</v>
       </c>
       <c r="D69" s="1">
-        <v>10.050000000000001</v>
+        <v>-14</v>
       </c>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>811.80499999999995</v>
+        <v>865.46</v>
       </c>
       <c r="B70" s="1">
-        <v>468.97</v>
+        <v>1598.211</v>
       </c>
       <c r="C70" s="1">
-        <v>2847</v>
+        <v>2949.2</v>
       </c>
       <c r="D70" s="1">
-        <v>12.05</v>
+        <v>-12</v>
       </c>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>814.04399999999998</v>
+        <v>861.92600000000004</v>
       </c>
       <c r="B71" s="1">
-        <v>371.57900000000001</v>
+        <v>1501.7670000000001</v>
       </c>
       <c r="C71" s="1">
-        <v>2847</v>
+        <v>2949.2</v>
       </c>
       <c r="D71" s="1">
-        <v>14.03</v>
+        <v>-9.9700000000000006</v>
       </c>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>817.01599999999996</v>
+        <v>859.24099999999999</v>
       </c>
       <c r="B72" s="1">
-        <v>271.03100000000001</v>
+        <v>1406.7460000000001</v>
       </c>
       <c r="C72" s="1">
-        <v>2847</v>
+        <v>2949.2</v>
       </c>
       <c r="D72" s="1">
-        <v>16.03</v>
+        <v>-7.97</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>792.93899999999996</v>
+        <v>857.14300000000003</v>
       </c>
       <c r="B73" s="1">
-        <v>1030.4090000000001</v>
+        <v>1312.4559999999999</v>
       </c>
       <c r="C73" s="1">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="D73" s="1">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>815.49</v>
+        <v>855.62699999999995</v>
       </c>
       <c r="B74" s="1">
-        <v>1782.9459999999999</v>
+        <v>1218.2860000000001</v>
       </c>
       <c r="C74" s="1">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="D74" s="1">
-        <v>-16.100000000000001</v>
+        <v>-3.97</v>
       </c>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>810.44899999999996</v>
+        <v>854.9</v>
       </c>
       <c r="B75" s="1">
-        <v>1678.1679999999999</v>
+        <v>1125.1310000000001</v>
       </c>
       <c r="C75" s="1">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="D75" s="1">
-        <v>-13.95</v>
+        <v>-2</v>
       </c>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>806.46500000000003</v>
+        <v>854.61800000000005</v>
       </c>
       <c r="B76" s="1">
-        <v>1582.16</v>
+        <v>1031.0070000000001</v>
       </c>
       <c r="C76" s="1">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="D76" s="1">
-        <v>-11.92</v>
+        <v>0</v>
       </c>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>802.78800000000001</v>
+        <v>855.05600000000004</v>
       </c>
       <c r="B77" s="1">
-        <v>1487.8009999999999</v>
+        <v>936.75699999999995</v>
       </c>
       <c r="C77" s="1">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="D77" s="1">
-        <v>-9.92</v>
+        <v>2</v>
       </c>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>799.87300000000005</v>
+        <v>856.02200000000005</v>
       </c>
       <c r="B78" s="1">
-        <v>1394.925</v>
+        <v>842.16399999999999</v>
       </c>
       <c r="C78" s="1">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="D78" s="1">
-        <v>-7.92</v>
+        <v>3.98</v>
       </c>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>797.23099999999999</v>
+        <v>857.96299999999997</v>
       </c>
       <c r="B79" s="1">
-        <v>1302.6880000000001</v>
+        <v>747.05100000000004</v>
       </c>
       <c r="C79" s="1">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="D79" s="1">
-        <v>-5.92</v>
+        <v>5.98</v>
       </c>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>795.28099999999995</v>
+        <v>860.02099999999996</v>
       </c>
       <c r="B80" s="1">
-        <v>1210.7380000000001</v>
+        <v>650.04899999999998</v>
       </c>
       <c r="C80" s="1">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="D80" s="1">
-        <v>-3.92</v>
+        <v>7.95</v>
       </c>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>793.97900000000004</v>
+        <v>863.04</v>
       </c>
       <c r="B81" s="1">
-        <v>1119.6880000000001</v>
+        <v>551.43899999999996</v>
       </c>
       <c r="C81" s="1">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="D81" s="1">
-        <v>-1.92</v>
+        <v>9.98</v>
       </c>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>792.92</v>
+        <v>866.82600000000002</v>
       </c>
       <c r="B82" s="1">
-        <v>1029.5609999999999</v>
+        <v>452.90600000000001</v>
       </c>
       <c r="C82" s="1">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="D82" s="1">
-        <v>0.05</v>
+        <v>11.98</v>
       </c>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>792.30799999999999</v>
+        <v>870.99199999999996</v>
       </c>
       <c r="B83" s="1">
-        <v>938.23900000000003</v>
+        <v>353.67599999999999</v>
       </c>
       <c r="C83" s="1">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="D83" s="1">
-        <v>2.0499999999999998</v>
+        <v>13.98</v>
       </c>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>792.28300000000002</v>
+        <v>874.98699999999997</v>
       </c>
       <c r="B84" s="1">
-        <v>844.93899999999996</v>
+        <v>272.22199999999998</v>
       </c>
       <c r="C84" s="1">
-        <v>2946.7</v>
+        <v>2949.2</v>
       </c>
       <c r="D84" s="1">
-        <v>4.08</v>
+        <v>15.93</v>
       </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
-        <v>792.505</v>
-      </c>
-      <c r="B85" s="1">
-        <v>753.78</v>
-      </c>
-      <c r="C85" s="1">
-        <v>2946.7</v>
-      </c>
-      <c r="D85" s="1">
-        <v>6.05</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
-        <v>793.66200000000003</v>
-      </c>
-      <c r="B86" s="1">
-        <v>659.44100000000003</v>
-      </c>
-      <c r="C86" s="1">
-        <v>2946.7</v>
-      </c>
-      <c r="D86" s="1">
-        <v>8.0500000000000007</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
-        <v>795.00199999999995</v>
-      </c>
-      <c r="B87" s="1">
-        <v>565.50800000000004</v>
-      </c>
-      <c r="C87" s="1">
-        <v>2946.7</v>
-      </c>
-      <c r="D87" s="1">
-        <v>10.050000000000001</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
-        <v>796.89</v>
-      </c>
-      <c r="B88" s="1">
-        <v>470.82900000000001</v>
-      </c>
-      <c r="C88" s="1">
-        <v>2946.7</v>
-      </c>
-      <c r="D88" s="1">
-        <v>12.05</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
-        <v>799.20799999999997</v>
-      </c>
-      <c r="B89" s="1">
-        <v>372.37299999999999</v>
-      </c>
-      <c r="C89" s="1">
-        <v>2946.7</v>
-      </c>
-      <c r="D89" s="1">
-        <v>14.03</v>
-      </c>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
-        <v>801.87300000000005</v>
-      </c>
-      <c r="B90" s="1">
-        <v>274.84699999999998</v>
-      </c>
-      <c r="C90" s="1">
-        <v>2946.7</v>
-      </c>
-      <c r="D90" s="1">
-        <v>16.03</v>
-      </c>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
@@ -1915,48 +1867,6 @@
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cam7_validation.xlsx
+++ b/cam7_validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CEF90C-D08C-4F71-9C34-9C723A59D70F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C7D787-F1AD-4510-A375-8C5D6F4381E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11657" yWindow="3429" windowWidth="17717" windowHeight="13225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="4500" windowWidth="21446" windowHeight="13226" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -350,20 +350,20 @@
   <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>919.11500000000001</v>
+        <v>875</v>
       </c>
       <c r="B1" s="1">
-        <v>1030.576</v>
+        <v>1030.7349999999999</v>
       </c>
       <c r="C1" s="1">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="D1" s="1">
         <v>0</v>
@@ -372,13 +372,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>941.47799999999995</v>
+        <v>892.32</v>
       </c>
       <c r="B2" s="1">
-        <v>1802.6310000000001</v>
+        <v>1806.374</v>
       </c>
       <c r="C2" s="1">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="D2" s="1">
         <v>-16.07</v>
@@ -387,1232 +387,992 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>932.20699999999999</v>
+        <v>887.86</v>
       </c>
       <c r="B3" s="1">
-        <v>1620.287</v>
+        <v>1700.5440000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="D3" s="1">
-        <v>-12</v>
+        <v>-13.97</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>928.86599999999999</v>
+        <v>884.02800000000002</v>
       </c>
       <c r="B4" s="1">
-        <v>1542.607</v>
+        <v>1602.5709999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="D4" s="1">
-        <v>-9.9700000000000006</v>
+        <v>-11.97</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>924.67</v>
+        <v>881.00199999999995</v>
       </c>
       <c r="B5" s="1">
-        <v>1412.415</v>
+        <v>1505.2929999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="D5" s="1">
-        <v>-7.97</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>920.34900000000005</v>
+        <v>878.92200000000003</v>
       </c>
       <c r="B6" s="1">
-        <v>1218.7829999999999</v>
+        <v>1410.116</v>
       </c>
       <c r="C6" s="1">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="D6" s="1">
-        <v>-3.97</v>
+        <v>-7.97</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>919.52300000000002</v>
+        <v>876.99099999999999</v>
       </c>
       <c r="B7" s="1">
-        <v>1124.577</v>
+        <v>1315.3309999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="D7" s="1">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>919.10500000000002</v>
+        <v>875.91600000000005</v>
       </c>
       <c r="B8" s="1">
-        <v>1030.1300000000001</v>
+        <v>1219.662</v>
       </c>
       <c r="C8" s="1">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>-3.95</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>919.971</v>
+        <v>875.21299999999997</v>
       </c>
       <c r="B9" s="1">
-        <v>936.12300000000005</v>
+        <v>1126.2270000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>921</v>
+        <v>875</v>
       </c>
       <c r="B10" s="1">
-        <v>841.029</v>
+        <v>1031.258</v>
       </c>
       <c r="C10" s="1">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="D10" s="1">
-        <v>3.98</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>922.81700000000001</v>
+        <v>875.62099999999998</v>
       </c>
       <c r="B11" s="1">
-        <v>744.58</v>
+        <v>935.36</v>
       </c>
       <c r="C11" s="1">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="D11" s="1">
-        <v>5.98</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>925.44600000000003</v>
+        <v>876.60699999999997</v>
       </c>
       <c r="B12" s="1">
-        <v>647.851</v>
+        <v>840.56500000000005</v>
       </c>
       <c r="C12" s="1">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="D12" s="1">
-        <v>7.95</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>928.81299999999999</v>
+        <v>878.50099999999998</v>
       </c>
       <c r="B13" s="1">
-        <v>548.54200000000003</v>
+        <v>744.60699999999997</v>
       </c>
       <c r="C13" s="1">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="D13" s="1">
-        <v>9.98</v>
+        <v>6</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>932.87099999999998</v>
+        <v>880.98</v>
       </c>
       <c r="B14" s="1">
-        <v>450.18900000000002</v>
+        <v>647.34400000000005</v>
       </c>
       <c r="C14" s="1">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="D14" s="1">
-        <v>11.98</v>
+        <v>7.97</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>937.57399999999996</v>
+        <v>883.99400000000003</v>
       </c>
       <c r="B15" s="1">
-        <v>350.34399999999999</v>
+        <v>549.226</v>
       </c>
       <c r="C15" s="1">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="D15" s="1">
-        <v>13.98</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>943.245</v>
+        <v>887.56100000000004</v>
       </c>
       <c r="B16" s="1">
-        <v>247.59700000000001</v>
+        <v>448.983</v>
       </c>
       <c r="C16" s="1">
-        <v>2550.4</v>
+        <v>2500</v>
       </c>
       <c r="D16" s="1">
-        <v>15.93</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>901.07500000000005</v>
+        <v>891.98199999999997</v>
       </c>
       <c r="B17" s="1">
-        <v>1030.5550000000001</v>
+        <v>349.58300000000003</v>
       </c>
       <c r="C17" s="1">
-        <v>2650.1</v>
+        <v>2500</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>922.54300000000001</v>
+        <v>896.80700000000002</v>
       </c>
       <c r="B18" s="1">
-        <v>1801.894</v>
+        <v>246.96100000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>2650.1</v>
+        <v>2500</v>
       </c>
       <c r="D18" s="1">
-        <v>-16.07</v>
+        <v>15.95</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>912.63800000000003</v>
+        <v>856.01800000000003</v>
       </c>
       <c r="B19" s="1">
-        <v>1599.4349999999999</v>
+        <v>1030.7470000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="D19" s="1">
-        <v>-11.97</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>909.18899999999996</v>
+        <v>872.50099999999998</v>
       </c>
       <c r="B20" s="1">
-        <v>1502.9079999999999</v>
+        <v>1805.0989999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="D20" s="1">
-        <v>-9.9700000000000006</v>
+        <v>-16.07</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>906.08799999999997</v>
+        <v>868.09</v>
       </c>
       <c r="B21" s="1">
-        <v>1408.4390000000001</v>
+        <v>1699.9549999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>-7.97</v>
+        <v>-13.97</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>903.99900000000002</v>
+        <v>864.84100000000001</v>
       </c>
       <c r="B22" s="1">
-        <v>1312.886</v>
+        <v>1601.481</v>
       </c>
       <c r="C22" s="1">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>-6</v>
+        <v>-11.97</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>902.20899999999995</v>
+        <v>861.98500000000001</v>
       </c>
       <c r="B23" s="1">
-        <v>1218.653</v>
+        <v>1504.8309999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="D23" s="1">
-        <v>-3.97</v>
+        <v>-9.9700000000000006</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>901.51400000000001</v>
+        <v>859.64300000000003</v>
       </c>
       <c r="B24" s="1">
-        <v>1124.627</v>
+        <v>1408.8430000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="D24" s="1">
-        <v>-2</v>
+        <v>-7.95</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>901.08199999999999</v>
+        <v>857.97699999999998</v>
       </c>
       <c r="B25" s="1">
-        <v>1030.42</v>
+        <v>1314.4970000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>-5.97</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>901.83799999999997</v>
+        <v>856.95600000000002</v>
       </c>
       <c r="B26" s="1">
-        <v>936.30399999999997</v>
+        <v>1220.232</v>
       </c>
       <c r="C26" s="1">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="D26" s="1">
-        <v>2</v>
+        <v>-3.98</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>902.95399999999995</v>
+        <v>856.12699999999995</v>
       </c>
       <c r="B27" s="1">
-        <v>841.53099999999995</v>
+        <v>1125.9860000000001</v>
       </c>
       <c r="C27" s="1">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="D27" s="1">
-        <v>3.98</v>
+        <v>-2</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>904.66600000000005</v>
+        <v>856.01</v>
       </c>
       <c r="B28" s="1">
-        <v>745.05600000000004</v>
+        <v>1030.703</v>
       </c>
       <c r="C28" s="1">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="D28" s="1">
-        <v>5.98</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>907.21100000000001</v>
+        <v>856.80499999999995</v>
       </c>
       <c r="B29" s="1">
-        <v>648.74300000000005</v>
+        <v>935.88499999999999</v>
       </c>
       <c r="C29" s="1">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="D29" s="1">
-        <v>7.95</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>909.73</v>
+        <v>857.67200000000003</v>
       </c>
       <c r="B30" s="1">
-        <v>569.35500000000002</v>
+        <v>841.78599999999994</v>
       </c>
       <c r="C30" s="1">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="D30" s="1">
-        <v>9.98</v>
+        <v>4</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>914.22500000000002</v>
+        <v>859.48599999999999</v>
       </c>
       <c r="B31" s="1">
-        <v>450.83199999999999</v>
+        <v>745.28599999999994</v>
       </c>
       <c r="C31" s="1">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="D31" s="1">
-        <v>11.98</v>
+        <v>5.97</v>
       </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>918.98400000000004</v>
+        <v>861.77499999999998</v>
       </c>
       <c r="B32" s="1">
-        <v>350.96800000000002</v>
+        <v>647.49099999999999</v>
       </c>
       <c r="C32" s="1">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="D32" s="1">
-        <v>13.98</v>
+        <v>7.97</v>
       </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>924.48400000000004</v>
+        <v>864.80100000000004</v>
       </c>
       <c r="B33" s="1">
-        <v>248.43199999999999</v>
+        <v>549.83600000000001</v>
       </c>
       <c r="C33" s="1">
-        <v>2650.1</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="D33" s="1">
-        <v>15.93</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>884.5</v>
+        <v>868.33699999999999</v>
       </c>
       <c r="B34" s="1">
-        <v>1030.7529999999999</v>
+        <v>449.58600000000001</v>
       </c>
       <c r="C34" s="1">
-        <v>2749.8</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="D34" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>905.44500000000005</v>
+        <v>872.49599999999998</v>
       </c>
       <c r="B35" s="1">
-        <v>1801.4169999999999</v>
+        <v>349.84899999999999</v>
       </c>
       <c r="C35" s="1">
-        <v>2749.8</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="D35" s="1">
-        <v>-16.079999999999998</v>
+        <v>14</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>900.35900000000004</v>
+        <v>877.11699999999996</v>
       </c>
       <c r="B36" s="1">
-        <v>1698.944</v>
+        <v>247.96899999999999</v>
       </c>
       <c r="C36" s="1">
-        <v>2749.8</v>
+        <v>2599.6999999999998</v>
       </c>
       <c r="D36" s="1">
-        <v>-14</v>
+        <v>15.95</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>895.80700000000002</v>
+        <v>838.69</v>
       </c>
       <c r="B37" s="1">
-        <v>1599.66</v>
+        <v>1030.9110000000001</v>
       </c>
       <c r="C37" s="1">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="D37" s="1">
-        <v>-11.98</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>892.46199999999999</v>
+        <v>854.48900000000003</v>
       </c>
       <c r="B38" s="1">
-        <v>1504.194</v>
+        <v>1804.338</v>
       </c>
       <c r="C38" s="1">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="D38" s="1">
-        <v>-10</v>
+        <v>-16.07</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>889.41</v>
+        <v>850.14200000000005</v>
       </c>
       <c r="B39" s="1">
-        <v>1408.297</v>
+        <v>1699.1769999999999</v>
       </c>
       <c r="C39" s="1">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="D39" s="1">
-        <v>-7.98</v>
+        <v>-13.97</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>885.82399999999996</v>
+        <v>846.96900000000005</v>
       </c>
       <c r="B40" s="1">
-        <v>1219.739</v>
+        <v>1601.2760000000001</v>
       </c>
       <c r="C40" s="1">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="D40" s="1">
-        <v>-3.98</v>
+        <v>-11.97</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>884.52700000000004</v>
+        <v>844.06</v>
       </c>
       <c r="B41" s="1">
-        <v>1031.932</v>
+        <v>1503.895</v>
       </c>
       <c r="C41" s="1">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="D41" s="1">
-        <v>0</v>
+        <v>-9.9700000000000006</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>885.00900000000001</v>
+        <v>842</v>
       </c>
       <c r="B42" s="1">
-        <v>937.77099999999996</v>
+        <v>1408.1479999999999</v>
       </c>
       <c r="C42" s="1">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="D42" s="1">
-        <v>1.97</v>
+        <v>-7.95</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>886.00599999999997</v>
+        <v>840.20100000000002</v>
       </c>
       <c r="B43" s="1">
-        <v>841.86400000000003</v>
+        <v>1313.9190000000001</v>
       </c>
       <c r="C43" s="1">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="D43" s="1">
-        <v>4</v>
+        <v>-5.97</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>887.99400000000003</v>
+        <v>839.12400000000002</v>
       </c>
       <c r="B44" s="1">
-        <v>746.77099999999996</v>
+        <v>1220.3389999999999</v>
       </c>
       <c r="C44" s="1">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="D44" s="1">
-        <v>5.97</v>
+        <v>-3.98</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>890.22</v>
+        <v>838.93899999999996</v>
       </c>
       <c r="B45" s="1">
-        <v>650.16800000000001</v>
+        <v>1125.9390000000001</v>
       </c>
       <c r="C45" s="1">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="D45" s="1">
-        <v>7.97</v>
+        <v>-2</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>893.51700000000005</v>
+        <v>838.77200000000005</v>
       </c>
       <c r="B46" s="1">
-        <v>552.154</v>
+        <v>1031.472</v>
       </c>
       <c r="C46" s="1">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="D46" s="1">
-        <v>9.9700000000000006</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>897.08299999999997</v>
+        <v>839.02099999999996</v>
       </c>
       <c r="B47" s="1">
-        <v>453.97500000000002</v>
+        <v>936.505</v>
       </c>
       <c r="C47" s="1">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="D47" s="1">
-        <v>11.95</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>901.86099999999999</v>
+        <v>840.12</v>
       </c>
       <c r="B48" s="1">
-        <v>352.63200000000001</v>
+        <v>840.95899999999995</v>
       </c>
       <c r="C48" s="1">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="D48" s="1">
-        <v>13.97</v>
+        <v>4</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>905.995</v>
+        <v>841.93399999999997</v>
       </c>
       <c r="B49" s="1">
-        <v>270.60700000000003</v>
+        <v>745.08299999999997</v>
       </c>
       <c r="C49" s="1">
-        <v>2749.8</v>
+        <v>2699.4</v>
       </c>
       <c r="D49" s="1">
-        <v>15.95</v>
+        <v>6</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>869.11500000000001</v>
+        <v>844.31700000000001</v>
       </c>
       <c r="B50" s="1">
-        <v>1030.6600000000001</v>
+        <v>648.61400000000003</v>
       </c>
       <c r="C50" s="1">
-        <v>2849.5</v>
+        <v>2699.4</v>
       </c>
       <c r="D50" s="1">
-        <v>0</v>
+        <v>7.97</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>889.44500000000005</v>
+        <v>847.00800000000004</v>
       </c>
       <c r="B51" s="1">
-        <v>1801.0160000000001</v>
+        <v>550.91899999999998</v>
       </c>
       <c r="C51" s="1">
-        <v>2849.5</v>
+        <v>2699.4</v>
       </c>
       <c r="D51" s="1">
-        <v>-16.079999999999998</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>884.452</v>
+        <v>850.38400000000001</v>
       </c>
       <c r="B52" s="1">
-        <v>1697.6179999999999</v>
+        <v>449.93400000000003</v>
       </c>
       <c r="C52" s="1">
-        <v>2849.5</v>
+        <v>2699.4</v>
       </c>
       <c r="D52" s="1">
-        <v>-14</v>
+        <v>12</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>880.07500000000005</v>
+        <v>854.5</v>
       </c>
       <c r="B53" s="1">
-        <v>1599.1310000000001</v>
+        <v>350.92200000000003</v>
       </c>
       <c r="C53" s="1">
-        <v>2849.5</v>
+        <v>2699.4</v>
       </c>
       <c r="D53" s="1">
-        <v>-11.98</v>
+        <v>14</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>876.50099999999998</v>
+        <v>858.81600000000003</v>
       </c>
       <c r="B54" s="1">
-        <v>1503.4059999999999</v>
+        <v>249.643</v>
       </c>
       <c r="C54" s="1">
-        <v>2849.5</v>
+        <v>2699.4</v>
       </c>
       <c r="D54" s="1">
-        <v>-9.98</v>
+        <v>15.95</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>873.88499999999999</v>
-      </c>
-      <c r="B55" s="1">
-        <v>1408.65</v>
-      </c>
-      <c r="C55" s="1">
-        <v>2849.5</v>
-      </c>
-      <c r="D55" s="1">
-        <v>-7.98</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <v>871.904</v>
-      </c>
-      <c r="B56" s="1">
-        <v>1314.3779999999999</v>
-      </c>
-      <c r="C56" s="1">
-        <v>2849.5</v>
-      </c>
-      <c r="D56" s="1">
-        <v>-6</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <v>870.07299999999998</v>
-      </c>
-      <c r="B57" s="1">
-        <v>1219.3330000000001</v>
-      </c>
-      <c r="C57" s="1">
-        <v>2849.5</v>
-      </c>
-      <c r="D57" s="1">
-        <v>-3.98</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>869.41</v>
-      </c>
-      <c r="B58" s="1">
-        <v>1125.5419999999999</v>
-      </c>
-      <c r="C58" s="1">
-        <v>2849.5</v>
-      </c>
-      <c r="D58" s="1">
-        <v>-2</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>869.5</v>
-      </c>
-      <c r="B59" s="1">
-        <v>937.76099999999997</v>
-      </c>
-      <c r="C59" s="1">
-        <v>2849.5</v>
-      </c>
-      <c r="D59" s="1">
-        <v>2</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>870.79300000000001</v>
-      </c>
-      <c r="B60" s="1">
-        <v>842.851</v>
-      </c>
-      <c r="C60" s="1">
-        <v>2849.5</v>
-      </c>
-      <c r="D60" s="1">
-        <v>3.97</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>872.07600000000002</v>
-      </c>
-      <c r="B61" s="1">
-        <v>746.548</v>
-      </c>
-      <c r="C61" s="1">
-        <v>2849.5</v>
-      </c>
-      <c r="D61" s="1">
-        <v>5.97</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>874.05899999999997</v>
-      </c>
-      <c r="B62" s="1">
-        <v>669.74300000000005</v>
-      </c>
-      <c r="C62" s="1">
-        <v>2849.5</v>
-      </c>
-      <c r="D62" s="1">
-        <v>7.97</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <v>877.90800000000002</v>
-      </c>
-      <c r="B63" s="1">
-        <v>552.61900000000003</v>
-      </c>
-      <c r="C63" s="1">
-        <v>2849.5</v>
-      </c>
-      <c r="D63" s="1">
-        <v>9.9700000000000006</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <v>881.37599999999998</v>
-      </c>
-      <c r="B64" s="1">
-        <v>454.048</v>
-      </c>
-      <c r="C64" s="1">
-        <v>2849.5</v>
-      </c>
-      <c r="D64" s="1">
-        <v>11.97</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
-        <v>885.89200000000005</v>
-      </c>
-      <c r="B65" s="1">
-        <v>354.83</v>
-      </c>
-      <c r="C65" s="1">
-        <v>2849.5</v>
-      </c>
-      <c r="D65" s="1">
-        <v>13.97</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
-        <v>890.94799999999998</v>
-      </c>
-      <c r="B66" s="1">
-        <v>251.958</v>
-      </c>
-      <c r="C66" s="1">
-        <v>2849.5</v>
-      </c>
-      <c r="D66" s="1">
-        <v>15.95</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>854.67899999999997</v>
-      </c>
-      <c r="B67" s="1">
-        <v>1030.8810000000001</v>
-      </c>
-      <c r="C67" s="1">
-        <v>2949.2</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0</v>
-      </c>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <v>874.44100000000003</v>
-      </c>
-      <c r="B68" s="1">
-        <v>1799.556</v>
-      </c>
-      <c r="C68" s="1">
-        <v>2949.2</v>
-      </c>
-      <c r="D68" s="1">
-        <v>-16.07</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>869.47</v>
-      </c>
-      <c r="B69" s="1">
-        <v>1696.8389999999999</v>
-      </c>
-      <c r="C69" s="1">
-        <v>2949.2</v>
-      </c>
-      <c r="D69" s="1">
-        <v>-14</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>865.46</v>
-      </c>
-      <c r="B70" s="1">
-        <v>1598.211</v>
-      </c>
-      <c r="C70" s="1">
-        <v>2949.2</v>
-      </c>
-      <c r="D70" s="1">
-        <v>-12</v>
-      </c>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
-        <v>861.92600000000004</v>
-      </c>
-      <c r="B71" s="1">
-        <v>1501.7670000000001</v>
-      </c>
-      <c r="C71" s="1">
-        <v>2949.2</v>
-      </c>
-      <c r="D71" s="1">
-        <v>-9.9700000000000006</v>
-      </c>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
-        <v>859.24099999999999</v>
-      </c>
-      <c r="B72" s="1">
-        <v>1406.7460000000001</v>
-      </c>
-      <c r="C72" s="1">
-        <v>2949.2</v>
-      </c>
-      <c r="D72" s="1">
-        <v>-7.97</v>
-      </c>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <v>857.14300000000003</v>
-      </c>
-      <c r="B73" s="1">
-        <v>1312.4559999999999</v>
-      </c>
-      <c r="C73" s="1">
-        <v>2949.2</v>
-      </c>
-      <c r="D73" s="1">
-        <v>-6</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
-        <v>855.62699999999995</v>
-      </c>
-      <c r="B74" s="1">
-        <v>1218.2860000000001</v>
-      </c>
-      <c r="C74" s="1">
-        <v>2949.2</v>
-      </c>
-      <c r="D74" s="1">
-        <v>-3.97</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
-        <v>854.9</v>
-      </c>
-      <c r="B75" s="1">
-        <v>1125.1310000000001</v>
-      </c>
-      <c r="C75" s="1">
-        <v>2949.2</v>
-      </c>
-      <c r="D75" s="1">
-        <v>-2</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
-        <v>854.61800000000005</v>
-      </c>
-      <c r="B76" s="1">
-        <v>1031.0070000000001</v>
-      </c>
-      <c r="C76" s="1">
-        <v>2949.2</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>855.05600000000004</v>
-      </c>
-      <c r="B77" s="1">
-        <v>936.75699999999995</v>
-      </c>
-      <c r="C77" s="1">
-        <v>2949.2</v>
-      </c>
-      <c r="D77" s="1">
-        <v>2</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>856.02200000000005</v>
-      </c>
-      <c r="B78" s="1">
-        <v>842.16399999999999</v>
-      </c>
-      <c r="C78" s="1">
-        <v>2949.2</v>
-      </c>
-      <c r="D78" s="1">
-        <v>3.98</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
-        <v>857.96299999999997</v>
-      </c>
-      <c r="B79" s="1">
-        <v>747.05100000000004</v>
-      </c>
-      <c r="C79" s="1">
-        <v>2949.2</v>
-      </c>
-      <c r="D79" s="1">
-        <v>5.98</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
-        <v>860.02099999999996</v>
-      </c>
-      <c r="B80" s="1">
-        <v>650.04899999999998</v>
-      </c>
-      <c r="C80" s="1">
-        <v>2949.2</v>
-      </c>
-      <c r="D80" s="1">
-        <v>7.95</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
-        <v>863.04</v>
-      </c>
-      <c r="B81" s="1">
-        <v>551.43899999999996</v>
-      </c>
-      <c r="C81" s="1">
-        <v>2949.2</v>
-      </c>
-      <c r="D81" s="1">
-        <v>9.98</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
-        <v>866.82600000000002</v>
-      </c>
-      <c r="B82" s="1">
-        <v>452.90600000000001</v>
-      </c>
-      <c r="C82" s="1">
-        <v>2949.2</v>
-      </c>
-      <c r="D82" s="1">
-        <v>11.98</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
-        <v>870.99199999999996</v>
-      </c>
-      <c r="B83" s="1">
-        <v>353.67599999999999</v>
-      </c>
-      <c r="C83" s="1">
-        <v>2949.2</v>
-      </c>
-      <c r="D83" s="1">
-        <v>13.98</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
-        <v>874.98699999999997</v>
-      </c>
-      <c r="B84" s="1">
-        <v>272.22199999999998</v>
-      </c>
-      <c r="C84" s="1">
-        <v>2949.2</v>
-      </c>
-      <c r="D84" s="1">
-        <v>15.93</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
